--- a/有好货页面/id_1908060/需求表格.xlsx
+++ b/有好货页面/id_1908060/需求表格.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tankunpeng/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tankunpeng/git/Front-end/有好货页面/id_1908060/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EF76077-7413-D148-8E9E-094B95B7492A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4364F7-CB13-164F-BA42-CA3FD481FE71}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4720" yWindow="3560" windowWidth="28040" windowHeight="15940" xr2:uid="{280EFB05-5750-C240-B8E3-74A8CB818465}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>页面</t>
   </si>
@@ -109,13 +109,17 @@
   </si>
   <si>
     <t>页面3</t>
+  </si>
+  <si>
+    <t>注：十一处理双十一需求，之后补上进度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -128,6 +132,13 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -157,9 +168,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -474,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9172B31-26DA-FB44-87CB-D074D71373F1}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -593,6 +605,11 @@
         <v>10</v>
       </c>
     </row>
+    <row r="10" spans="1:8">
+      <c r="B10" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
